--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/39_Isparta_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/39_Isparta_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB297EF-9F0B-44B8-9AEA-191B364B067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C92EAF-0971-40CA-8084-C4CBA0C5D859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{72D28CD4-D3B4-4317-93DB-EEEA1C079F44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{8181BAF7-D851-4455-8EFC-8516EFEBD2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="141" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{15A82D96-0F73-4124-98E4-D11D14493072}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C4DF585B-55E2-4FC0-9599-B64BF5A36C89}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{24A027AC-C801-4E7A-8FA9-356E9347A5C5}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E108C013-E848-43B0-B701-B93882A7CBE3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{D8BB6C51-A59B-44DD-9B6B-3EB193EA1E09}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{6E035811-387D-4AF7-9062-C12832484240}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{72D8B24C-7C3D-486D-A2E2-A94E33B5C2E3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D31C0836-88B2-4EDB-BEA5-EBE0ABE999A5}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{9427122D-2FE6-4504-98E1-606B648B6D96}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B95B435D-F59E-4D35-9630-30F80F74B32F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{1047F745-6D29-4830-BD14-6B408169BBE7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{EDDC0A87-3402-4F4F-A347-C3C1C22CB77F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{D355F6CF-0915-4321-8893-C73F6F635EF0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{4DD73D09-0520-473E-99F7-CD20D4D37CD9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D7D45C-4569-4B9B-9364-68ED3CB47BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C32BCD-D1C3-4A21-9672-58328BDB40D8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2450,7 +2450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED373102-F84B-4935-A0B2-B25524386191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E378D3-98D8-4302-A495-ABDB8754EE36}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3731,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958DD6D5-2827-4E13-B2FC-52BFE4EA710A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F32D7-5324-401C-A500-2D63645F4AC4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5010,7 +5010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F717345-D3FC-49EC-AD89-30734AF51E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58219556-CF72-45AF-BFF5-16F3E8F3E834}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6289,7 +6289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DFA213-F809-414B-8A87-BCDADD1C03CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3AF9C9-895D-4E2D-A531-403327011776}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7566,7 +7566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C084B06E-7044-41D2-B03C-34D436141415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9EC136-3DB7-4DAC-8AD6-9FE62E721E30}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
